--- a/Documentation/AIDE-FORMULAIRE-EXEMPLES-RESULTATS.xlsx
+++ b/Documentation/AIDE-FORMULAIRE-EXEMPLES-RESULTATS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\INESSS-QC_inesss1\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01EBD0A-D323-45A4-A3A0-B6F8D7687A1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ex3.1.3.1" sheetId="1" r:id="rId1"/>
@@ -436,10 +437,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -484,21 +485,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,7 +510,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,7 +527,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -601,6 +602,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -636,6 +654,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -811,13 +846,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -1368,7 +1403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:AB17"/>
   <sheetViews>
@@ -1376,7 +1411,7 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -1771,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:AA15"/>
   <sheetViews>
@@ -1779,7 +1814,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -2050,13 +2085,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -2482,13 +2517,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -2902,13 +2937,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -3398,13 +3433,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -3662,13 +3697,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -4086,13 +4121,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -4442,13 +4477,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -5100,13 +5135,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
